--- a/biology/Neurosciences/Potentiel_de_repos/Potentiel_de_repos.xlsx
+++ b/biology/Neurosciences/Potentiel_de_repos/Potentiel_de_repos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le potentiel de repos membranaire (RMP, pour l'anglais resting membrane potential) est le potentiel électrochimique de membrane de la membrane plasmique d'une cellule excitable lorsqu'elle est au repos ; c'est un des états possibles du potentiel de la membrane.
 En introduisant une électrode de mesure à l'intérieur de la cellule (voir la méthode de patch-clamp), on constate une différence de potentiel : la face interne de la membrane est négative par rapport à une électrode de référence placée sur la face externe de la membrane. 
@@ -514,7 +526,9 @@
           <t>Mécanismes physiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les propriétés actives de la membrane plasmique sont à l'origine de cette différence de potentiel :
 propriétés propres à la bicouche phospholipidique :
@@ -555,7 +569,9 @@
           <t>Calcul de la séparation de charge</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'application numérique qui suit a pour but de démontrer que l'électroneutralité de la solution est respectée, malgré l'existence d'une différence de potentiel membranaire.
 Soit une cellule de 20 µm de diamètre ayant une concentration de 160 mM (mmol/L) en ions K+. 
@@ -733,7 +749,9 @@
           <t>Rôles physiologiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Toute cellule vivante a un potentiel de membrane. Le potentiel électrochimique qui lui correspond constitue une réserve d'énergie potentielle qui permet d'assurer les transports de substances nécessaires à la survie de la cellule.
 Le potentiel de repos joue un rôle important pour les cellules excitables, comme les neurones et les myocytes. En effet le franchissement par le potentiel de repos d'un certain seuil de dépolarisation déclenche chez ces cellules un potentiel d'action par l'activation de canaux dépendant du potentiel (canaux voltage-dépendant). L'importance de la polarisation du potentiel de repos détermine donc l'excitabilité de la cellule. Quand il est très hyperpolarisé (par l'activation tonique de canaux potassiques ou chlorures par exemple), la cellule est difficilement excitable, c'est-à-dire qu'il faut beaucoup dépolariser la cellule avec des potentiels postsynaptiques excitateurs pour qu'elle décharge un potentiel d'action. Quand le potentiel de repos est très dépolarisé (par la fermeture de canaux potassium ou par l'ouverture permanente de canaux sodium), la cellule est plus proche du seuil de déclenchement d'un potentiel d'action, et donc plus excitable.</t>
